--- a/digital_check/exceltest.xlsx
+++ b/digital_check/exceltest.xlsx
@@ -561,7 +561,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/digital_check/exceltest.xlsx
+++ b/digital_check/exceltest.xlsx
@@ -14,18 +14,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>Architektur- und Ingenieurbüros; technische, physikalische und chemische Untersuchung</t>
+    <t>Abwasserentsorgung</t>
+  </si>
+  <si>
+    <t>Architektur- und IngenieurbÃ¼ros; technische, physikalische und chemische Untersuchung</t>
+  </si>
+  <si>
+    <t>Beherbergung</t>
+  </si>
+  <si>
+    <t>Energieversorgung</t>
   </si>
   <si>
     <t>Erbringung von Dienstleistungen der Informationstechnologie</t>
   </si>
   <si>
-    <t>Erbringung von wirtschaftlichen Dienstleistungen für Unternehmen und Privatpersonen (z.B. Sekretariats- und Schreibdienste, Copy-Shops, Call Center, Messe-, Ausstellungs- und Kongressveranstalter, sonstige Dienstleistungen)</t>
+    <t>Erbringung von Finanzdienstleistungen</t>
+  </si>
+  <si>
+    <t>Erbringung von sonstigen Ã¼berwiegend persÃ¶nlichen Dienstleistungen</t>
+  </si>
+  <si>
+    <t>Erbringung von wirtschaftlichen Dienstleistungen fÃ¼r Unternehmen und Privatpersonen (z.B. Sekretariats- und Schreibdienste, Copy-Shops, Call Center, Messe-, Ausstellungs- und Kongressveranstalter, sonstige Dienstleistungen)</t>
+  </si>
+  <si>
+    <t>Erziehung und Unterricht</t>
   </si>
   <si>
     <t>Forschung und Entwicklung</t>
@@ -34,37 +52,61 @@
     <t>Gastronomie</t>
   </si>
   <si>
+    <t>GebÃ¤udebetreuung; Garten- und Landschaftsbau</t>
+  </si>
+  <si>
     <t>Gesundheitswesen</t>
   </si>
   <si>
-    <t>Grundstücks- und Wohnungswesen</t>
+    <t>GrundstÃ¼cks- und Wohnungswesen</t>
   </si>
   <si>
     <t>Hochbau</t>
   </si>
   <si>
-    <t>Kreative, künstlerische und unterhaltende Tätigkeiten</t>
+    <t>Informationsdienstleistungen</t>
+  </si>
+  <si>
+    <t>Interessenvertretungen sowie kirchliche und sonstige religiÃ¶se Vereinigungen (ohne Sozialwesen und Sport)</t>
+  </si>
+  <si>
+    <t>Kreative, kÃ¼nstlerische und unterhaltende TÃ¤tigkeiten</t>
+  </si>
+  <si>
+    <t>Lagerei sowie Erbringung von sonstigen Dienstleistungen fÃ¼r den Verkehr</t>
   </si>
   <si>
     <t>Landverkehr und Transport in Rohrfernleitungen</t>
   </si>
   <si>
-    <t>Mit Finanz- und Versicherungsdienstleistungen verbundene Tätigkeiten</t>
-  </si>
-  <si>
-    <t>Reisebüros, Reiseveranstalter und Erbringung sonstiger Reservierungsdienstleistungen</t>
+    <t>Mit Finanz- und Versicherungsdienstleistungen verbundene TÃ¤tigkeiten</t>
+  </si>
+  <si>
+    <t>Rechts- und Steuerberatung, WirtschaftsprÃ¼fung</t>
+  </si>
+  <si>
+    <t>Schifffahrt (Gastgewerbe)</t>
+  </si>
+  <si>
+    <t>Sonstige freiberufliche, wissenschaftliche und technische TÃ¤tigkeiten (z.B. Ateliers fÃ¼r Textil-, Schmuck-, Grafik- u. Ã¤. Design, Fotografie und Fotolabors, Ãbersetzen/Dolmetschen, sonstige TÃ¤tigkeiten)</t>
+  </si>
+  <si>
+    <t>Sozialwesen (ohne Heime)</t>
   </si>
   <si>
     <t>Tiefbau</t>
   </si>
   <si>
-    <t>Verwaltung und Führung von Unternehmen und Betrieben; Unternehmensberatung</t>
+    <t>Vermietung von beweglichen Sachen</t>
   </si>
   <si>
     <t>Werbung und Marktforschung</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Ãffentliche Verwaltung, Verteidigung; Sozialversicherung</t>
   </si>
 </sst>
 </file>
@@ -422,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +483,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -449,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -457,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -465,7 +507,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -473,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -497,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -505,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -513,7 +555,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -521,7 +563,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -529,7 +571,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -537,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -553,7 +595,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -561,7 +603,119 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
